--- a/Qhta.Unicode/WritingSystemStrings.xlsx
+++ b/Qhta.Unicode/WritingSystemStrings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f571b7848c072ca/VS/Projects/MyLib/Qhta.Unicode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_FD02876D8F549502C8600CDC3883005AB101A59C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F2B8D0-1650-4D8C-B473-1667F8D5B5A9}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_FD02876D8F549502C8600CDC3883005AB101A59C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A94019A-7A7F-4574-824B-ED87DBBE1864}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,6 @@
     <t>Muzyczna</t>
   </si>
   <si>
-    <t>Numerals</t>
-  </si>
-  <si>
     <t>Numeryczny</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>System pisma używany do wizualnego przedstawiania muzyki.</t>
   </si>
   <si>
-    <t>NumeralsTooltip</t>
-  </si>
-  <si>
     <t>A writing system for expressing numbers; that is, a mathematical notation for representing numbers of a given set, using digits or other symbols in a consistent manner.</t>
   </si>
   <si>
@@ -686,6 +680,12 @@
   </si>
   <si>
     <t>KindTooltip</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>NumericalTooltip</t>
   </si>
 </sst>
 </file>
@@ -741,6 +741,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1075,7 @@
     <col min="1" max="1" width="62.7109375" customWidth="1"/>
     <col min="2" max="2" width="96.7109375" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,10 +1336,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1354,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -1377,10 +1382,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1400,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1423,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1446,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
@@ -1469,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
@@ -1492,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>49</v>
@@ -1515,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -1538,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>52</v>
@@ -1561,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>54</v>
@@ -1584,10 +1589,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1607,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1630,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1653,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1676,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -2047,19 +2052,19 @@
         <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,19 +2075,19 @@
         <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,19 +2098,19 @@
         <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
         <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,19 +2121,19 @@
         <v>66</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
         <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,19 +2144,19 @@
         <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
         <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,19 +2167,19 @@
         <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
         <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,19 +2190,19 @@
         <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
         <v>110</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,19 +2213,19 @@
         <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
         <v>112</v>
       </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
-      </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,19 +2236,19 @@
         <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
         <v>116</v>
-      </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,19 +2259,19 @@
         <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
         <v>119</v>
-      </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,19 +2282,19 @@
         <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
         <v>121</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
         <v>122</v>
-      </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,19 +2305,19 @@
         <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
         <v>124</v>
       </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
         <v>125</v>
-      </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,19 +2328,19 @@
         <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
         <v>127</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
         <v>128</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,19 +2351,19 @@
         <v>66</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
         <v>131</v>
-      </c>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,19 +2374,19 @@
         <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
         <v>133</v>
       </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
         <v>134</v>
-      </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,19 +2397,19 @@
         <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
         <v>136</v>
       </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
         <v>137</v>
-      </c>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,19 +2420,19 @@
         <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
         <v>139</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
         <v>140</v>
-      </c>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,19 +2443,19 @@
         <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
         <v>142</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
         <v>143</v>
-      </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,19 +2466,19 @@
         <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
         <v>145</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
         <v>146</v>
-      </c>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,19 +2489,19 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
         <v>148</v>
       </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
         <v>149</v>
-      </c>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,19 +2512,19 @@
         <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
         <v>151</v>
       </c>
-      <c r="D63" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
         <v>152</v>
-      </c>
-      <c r="F63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,19 +2535,19 @@
         <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
         <v>154</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
         <v>155</v>
-      </c>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,19 +2558,19 @@
         <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,19 +2581,19 @@
         <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
         <v>160</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>161</v>
-      </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,19 +2604,19 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
         <v>163</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,19 +2627,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
         <v>166</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,19 +2650,19 @@
         <v>66</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
         <v>169</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
-      </c>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,19 +2673,19 @@
         <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
         <v>172</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,19 +2696,19 @@
         <v>66</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
         <v>175</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,22 +2716,22 @@
         <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
         <v>178</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>179</v>
-      </c>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,22 +2739,22 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,22 +2762,22 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,22 +2785,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,22 +2808,22 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2826,22 +2831,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,22 +2854,22 @@
         <v>7</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,22 +2877,22 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
         <v>193</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2895,22 +2900,22 @@
         <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
         <v>196</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>197</v>
-      </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,22 +2923,22 @@
         <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
         <v>199</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,22 +2946,22 @@
         <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
         <v>202</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,22 +2969,22 @@
         <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
         <v>205</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>206</v>
-      </c>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,22 +2992,22 @@
         <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
         <v>208</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>209</v>
-      </c>
-      <c r="F84" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,22 +3015,22 @@
         <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
         <v>211</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
